--- a/data/trans_dic/P56$familiarvive-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1980169841414026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1041438802469246</v>
+        <v>0.1041438802469247</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.433142786553506</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1077665992882874</v>
+        <v>0.1093018515154962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09424964031150203</v>
+        <v>0.0996193531866606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1098259817929762</v>
+        <v>0.1189522623418418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05367206108361251</v>
+        <v>0.05996468497169301</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3196116193747374</v>
+        <v>0.3199338625564413</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2127296068228881</v>
+        <v>0.2128031110804523</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.193632437663996</v>
+        <v>0.1833957319548303</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1855594806135686</v>
+        <v>0.185880286600643</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2755190332410298</v>
+        <v>0.276221884740371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2051760357570261</v>
+        <v>0.2060205821238039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1872651739661541</v>
+        <v>0.1870512750375726</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1612578550294497</v>
+        <v>0.1615418044249409</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3381207237950154</v>
+        <v>0.3459786247253956</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3287255162295751</v>
+        <v>0.3190383306006248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3045752687797154</v>
+        <v>0.3155298756172891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1789745272027006</v>
+        <v>0.1764033175176217</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5441625301838547</v>
+        <v>0.5333582369120523</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3522286139282228</v>
+        <v>0.3477361511465187</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.35453059313991</v>
+        <v>0.3630567755800277</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2754803122519619</v>
+        <v>0.2727029071677307</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4559612155367074</v>
+        <v>0.4522634536019612</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3194954610695868</v>
+        <v>0.3198678262271837</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3175224732844779</v>
+        <v>0.3141819517757468</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2329305447152326</v>
+        <v>0.2315263351755597</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3122225384083147</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1592454776072574</v>
+        <v>0.1592454776072573</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2068442319246534</v>
@@ -845,37 +845,37 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.1103902722961965</v>
+        <v>0.1084382930537488</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09432888945669861</v>
+        <v>0.09373579118543156</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09656728656682331</v>
+        <v>0.09820907830158786</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1311159777710438</v>
+        <v>0.130532679249826</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09280421571370019</v>
+        <v>0.0920537220246746</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1625711857143011</v>
+        <v>0.1666702054876416</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1097085595334365</v>
+        <v>0.1072585288776596</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1174653160010497</v>
+        <v>0.1199679800250031</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.6799396164024881</v>
+        <v>0.6805183857925372</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3034882380426389</v>
+        <v>0.3763815511781818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3441794117159512</v>
+        <v>0.355235297949611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8299371762503815</v>
+        <v>0.8000114715550848</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6890203684785758</v>
+        <v>0.7437743387232477</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5664010103151298</v>
+        <v>0.5456899743216377</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2547887598037601</v>
+        <v>0.2474661243297141</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5483629060491674</v>
+        <v>0.51080007282796</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5799803205774574</v>
+        <v>0.6174172822606148</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4261982521218086</v>
+        <v>0.4215948659752684</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2515213168393534</v>
+        <v>0.2603322827937202</v>
       </c>
     </row>
     <row r="10">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2020927447264542</v>
+        <v>0.2020927447264543</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1681972278150081</v>
+        <v>0.1681972278150082</v>
       </c>
     </row>
     <row r="11">
@@ -985,7 +985,7 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.0478772935357859</v>
+        <v>0.04924682374797974</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.0530868691958096</v>
+        <v>0.05601185007448554</v>
       </c>
     </row>
     <row r="12">
@@ -1007,7 +1007,7 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.4886606040588193</v>
+        <v>0.4758802098698334</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.4835775145734008</v>
+        <v>0.4794312421510438</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.8007509929891369</v>
+        <v>0.7929331904221952</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.3869635698395186</v>
+        <v>0.3846363763812231</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>0.2379047860994608</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1912751808342245</v>
+        <v>0.1912751808342246</v>
       </c>
     </row>
     <row r="14">
@@ -1082,40 +1082,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08627827068482447</v>
+        <v>0.08560736465209809</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2242774564269978</v>
+        <v>0.2238274581107862</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1789119512020578</v>
+        <v>0.1801992497986916</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2100098882569772</v>
+        <v>0.209657646738797</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1633628050799137</v>
+        <v>0.1610584810149384</v>
       </c>
     </row>
     <row r="15">
@@ -1126,40 +1126,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2032180072756288</v>
+        <v>0.1980400526102777</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3512690718670951</v>
+        <v>0.3528179892370349</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2527683020375507</v>
+        <v>0.2548561145266206</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3211570124676746</v>
+        <v>0.3240177535742028</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2269720133157202</v>
+        <v>0.222838385488772</v>
       </c>
     </row>
     <row r="16">
@@ -1429,40 +1429,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4756</v>
+        <v>4824</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6446</v>
+        <v>6813</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6226</v>
+        <v>6743</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3878</v>
+        <v>4332</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26660</v>
+        <v>26687</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>39557</v>
+        <v>39571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27638</v>
+        <v>26177</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40298</v>
+        <v>40367</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>35143</v>
+        <v>35232</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52185</v>
+        <v>52400</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>37345</v>
+        <v>37302</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46671</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="7">
@@ -1473,40 +1473,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14923</v>
+        <v>15270</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22483</v>
+        <v>21820</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17266</v>
+        <v>17887</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12931</v>
+        <v>12745</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45391</v>
+        <v>44490</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>65497</v>
+        <v>64661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50604</v>
+        <v>51821</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59826</v>
+        <v>59223</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>58158</v>
+        <v>57687</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>81261</v>
+        <v>81356</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63321</v>
+        <v>62655</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67414</v>
+        <v>67008</v>
       </c>
     </row>
     <row r="8">
@@ -1610,37 +1610,37 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2697</v>
+        <v>2680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1136</v>
+        <v>1155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3328</v>
+        <v>3313</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4460</v>
+        <v>4424</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3396</v>
+        <v>3482</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4011</v>
+        <v>3922</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9004</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="11">
@@ -1652,37 +1652,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6205</v>
+        <v>6210</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3393</v>
+        <v>4208</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9841</v>
+        <v>10157</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5618</v>
+        <v>5415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8105</v>
+        <v>8749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14378</v>
+        <v>13852</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12246</v>
+        <v>11894</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5985</v>
+        <v>5575</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12115</v>
+        <v>12897</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15584</v>
+        <v>15415</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19280</v>
+        <v>19956</v>
       </c>
     </row>
     <row r="12">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>813</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15">
@@ -1816,7 +1816,7 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>3493</v>
+        <v>3402</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
@@ -1824,15 +1824,15 @@
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>3950</v>
+        <v>3916</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>4331</v>
+        <v>4289</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>5926</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="16">
@@ -1935,40 +1935,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9317</v>
+        <v>9245</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>45334</v>
+        <v>45243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>48914</v>
+        <v>49266</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>58937</v>
+        <v>58838</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>62305</v>
+        <v>61426</v>
       </c>
     </row>
     <row r="19">
@@ -1979,40 +1979,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21945</v>
+        <v>21386</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>71004</v>
+        <v>71317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69107</v>
+        <v>69677</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>90130</v>
+        <v>90932</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>86564</v>
+        <v>84988</v>
       </c>
     </row>
     <row r="20">
